--- a/medicine/Enfance/Wakou_(magazine)/Wakou_(magazine).xlsx
+++ b/medicine/Enfance/Wakou_(magazine)/Wakou_(magazine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Wakou Écouter est un magazine français pour enfants, édité depuis 1989[2] par Milan Presse devenu filiale du groupe Bayard Presse.
-Ce magazine s'adresse aux enfants de quatre à sept ans et s'intéresse surtout à la nature et aux animaux[3].
+Wakou Écouter est un magazine français pour enfants, édité depuis 1989 par Milan Presse devenu filiale du groupe Bayard Presse.
+Ce magazine s'adresse aux enfants de quatre à sept ans et s'intéresse surtout à la nature et aux animaux.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Rubriques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 2024, le magazine est découpé de la manière suivante:
 "BD Wakou": Bande dessinée d'une page mettant en scène Wakou la mascotte du magazine.
@@ -527,7 +541,7 @@
 Histoire illustrée mettant en scène des animaux le plus souvent
 "Le coin-coin des nouveautés": Actualités culturelles (nouveaux livres, nouveaux jeux de sociétés, annonce d'évènements jeunesse ...)
 Présentation du prochain numéro
-En plus de ses 36 pages[4]  le magazine contient également des éléments détachables:
+En plus de ses 36 pages  le magazine contient également des éléments détachables:
 3 cartes à collectionner
 1 quizz en lien avec les sujets traités dans le numéros
 1 poster</t>
